--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Фамилия</t>
   </si>
@@ -67,15 +67,33 @@
   </si>
   <si>
     <t>Загружать</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,10 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,32 +434,43 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -458,7 +490,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -468,11 +500,17 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="1">
+        <v>31689</v>
+      </c>
       <c r="E3" s="2">
         <v>2023</v>
       </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -482,11 +520,17 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="1">
+        <v>31689</v>
+      </c>
       <c r="E4" s="2">
         <v>2024</v>
       </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -496,8 +540,14 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" s="1">
+        <v>31689</v>
+      </c>
       <c r="E5" s="2">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Фамилия</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>8673515150</t>
   </si>
 </sst>
 </file>
@@ -121,11 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,7 +440,7 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,7 +466,7 @@
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -489,6 +495,9 @@
       <c r="F2">
         <v>10000</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -509,6 +518,9 @@
       <c r="F3">
         <v>99</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -529,6 +541,9 @@
       <c r="F4">
         <v>123</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -548,6 +563,9 @@
       </c>
       <c r="F5">
         <v>1234</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,6 +498,9 @@
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I2" s="1">
+        <v>31689</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -521,6 +524,9 @@
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="1">
+        <v>31689</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -544,6 +550,9 @@
       <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I4" s="1">
+        <v>31689</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -566,6 +575,9 @@
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>31689</v>
       </c>
     </row>
   </sheetData>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Фамилия</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>8673515150</t>
+  </si>
+  <si>
+    <t>581702534850</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,7 +442,7 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
@@ -463,7 +466,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -495,6 +498,9 @@
       <c r="F2">
         <v>10000</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
@@ -521,6 +527,9 @@
       <c r="F3">
         <v>99</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
@@ -547,6 +556,9 @@
       <c r="F4">
         <v>123</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
@@ -572,6 +584,9 @@
       </c>
       <c r="F5">
         <v>1234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Фамилия</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>581702534850</t>
+  </si>
+  <si>
+    <t>Номер справки</t>
   </si>
 </sst>
 </file>
@@ -127,14 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,167 +431,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>3334</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>31689</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
+        <v>31689</v>
+      </c>
+      <c r="F2" s="2">
         <v>2024</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>31689</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>3335</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>31689</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
+        <v>31689</v>
+      </c>
+      <c r="F3" s="2">
         <v>2023</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>99</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>31689</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3336</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>31689</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
+        <v>31689</v>
+      </c>
+      <c r="F4" s="2">
         <v>2024</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>123</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>31689</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3337</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>31689</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
+        <v>31689</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1234</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>31689</v>
       </c>
     </row>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Фамилия</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Номер справки</t>
+  </si>
+  <si>
+    <t>ФИО совпадает</t>
+  </si>
+  <si>
+    <t>Фамилия2</t>
+  </si>
+  <si>
+    <t>Имя2</t>
+  </si>
+  <si>
+    <t>Отчество2</t>
   </si>
 </sst>
 </file>
@@ -110,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,12 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,185 +452,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="47.25">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>3334</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>31689</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G2" s="2">
         <v>2024</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10000</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1">
-        <v>31689</v>
-      </c>
+      <c r="K2" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>3335</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>31689</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G3" s="2">
         <v>2023</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>99</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
-        <v>31689</v>
-      </c>
+      <c r="K3" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3336</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
-        <v>31689</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G4" s="2">
         <v>2024</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>123</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1">
-        <v>31689</v>
-      </c>
+      <c r="K4" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3337</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
-        <v>31689</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1234</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1">
-        <v>31689</v>
-      </c>
+      <c r="K5" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Фамилия</t>
   </si>
@@ -67,43 +67,13 @@
   </si>
   <si>
     <t>Загружать</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Паспорт</t>
-  </si>
-  <si>
-    <t>Дата выдачи</t>
-  </si>
-  <si>
-    <t>8673515150</t>
-  </si>
-  <si>
-    <t>581702534850</t>
-  </si>
-  <si>
-    <t>Номер справки</t>
-  </si>
-  <si>
-    <t>ФИО совпадает</t>
-  </si>
-  <si>
-    <t>Фамилия2</t>
-  </si>
-  <si>
-    <t>Имя2</t>
-  </si>
-  <si>
-    <t>Отчество2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,28 +82,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,16 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,217 +401,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="47.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>3334</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>31689</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H2">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
-        <v>31689</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>3335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H3">
-        <v>99</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1">
-        <v>31689</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>3336</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H4">
-        <v>123</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1">
-        <v>31689</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>3337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1234</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1">
-        <v>31689</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Фамилия</t>
   </si>
@@ -67,13 +67,43 @@
   </si>
   <si>
     <t>Загружать</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>8673515150</t>
+  </si>
+  <si>
+    <t>581702534850</t>
+  </si>
+  <si>
+    <t>Номер справки</t>
+  </si>
+  <si>
+    <t>ФИО совпадает</t>
+  </si>
+  <si>
+    <t>Фамилия2</t>
+  </si>
+  <si>
+    <t>Имя2</t>
+  </si>
+  <si>
+    <t>Отчество2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +112,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,10 +148,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,104 +452,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="47.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>3334</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>31689</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F2" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G2" s="2">
         <v>2024</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>10000</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>3335</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G3" s="2">
         <v>2023</v>
       </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3336</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G4" s="2">
         <v>2024</v>
       </c>
+      <c r="H4">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3337</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="1">
+        <v>31689</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1234</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1">
+        <v>31689</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1">
-        <v>31689</v>
+        <v>45662</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -585,7 +585,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="1">
-        <v>31689</v>
+        <v>45663</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -623,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="K4" s="1">
-        <v>31689</v>
+        <v>45664</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -658,7 +658,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="1">
-        <v>31689</v>
+        <v>45665</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Фамилия</t>
   </si>
@@ -97,6 +97,81 @@
   </si>
   <si>
     <t>Отчество2</t>
+  </si>
+  <si>
+    <t>Демина</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Вячеславовна</t>
+  </si>
+  <si>
+    <t>5835099568</t>
+  </si>
+  <si>
+    <t>Батрина</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>583513029206</t>
+  </si>
+  <si>
+    <t>Малинин</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>582308915739</t>
+  </si>
+  <si>
+    <t>Яйкова</t>
+  </si>
+  <si>
+    <t>Олеся</t>
+  </si>
+  <si>
+    <t>Валерьевна</t>
+  </si>
+  <si>
+    <t>583516875729</t>
+  </si>
+  <si>
+    <t>Черёмина</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>583513809750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вячеславовна </t>
+  </si>
+  <si>
+    <t>583509956871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Екатерина </t>
+  </si>
+  <si>
+    <t>Яйкова1</t>
+  </si>
+  <si>
+    <t>Демина1</t>
   </si>
 </sst>
 </file>
@@ -452,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,7 +542,8 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="14" width="12.28515625" customWidth="1"/>
+    <col min="11" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -555,6 +631,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="O2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
@@ -590,6 +669,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
@@ -628,6 +710,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
@@ -663,6 +748,247 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>4154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>33478</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H6">
+        <v>3800</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>4155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>28024</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H7">
+        <v>5120</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>4156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32967</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H8">
+        <v>2800</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>4157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1">
+        <v>28754</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H9">
+        <v>9000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>4158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1">
+        <v>28754</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>4159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1">
+        <v>28055</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H11">
+        <v>37600</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>4160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1">
+        <v>33478</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H12">
+        <v>13400</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>4161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>33478</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2024</v>
+      </c>
+      <c r="H13">
+        <v>4600</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Фамилия</t>
   </si>
@@ -36,39 +36,9 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Андреев</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
     <t>Загружено</t>
   </si>
   <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>Не загружать</t>
-  </si>
-  <si>
-    <t>загруз</t>
-  </si>
-  <si>
-    <t>загрузович</t>
-  </si>
-  <si>
-    <t>Загружать</t>
-  </si>
-  <si>
     <t>ИНН</t>
   </si>
   <si>
@@ -78,18 +48,9 @@
     <t>Дата выдачи</t>
   </si>
   <si>
-    <t>8673515150</t>
-  </si>
-  <si>
-    <t>581702534850</t>
-  </si>
-  <si>
     <t>Номер справки</t>
   </si>
   <si>
-    <t>ФИО совпадает</t>
-  </si>
-  <si>
     <t>Фамилия2</t>
   </si>
   <si>
@@ -172,6 +133,24 @@
   </si>
   <si>
     <t>Демина1</t>
+  </si>
+  <si>
+    <t>Инн2</t>
+  </si>
+  <si>
+    <t>Паспорт2</t>
+  </si>
+  <si>
+    <t>Дата выдачи2</t>
+  </si>
+  <si>
+    <t>Код документа</t>
+  </si>
+  <si>
+    <t>Код документа 2</t>
+  </si>
+  <si>
+    <t>Дата рождения2</t>
   </si>
 </sst>
 </file>
@@ -223,9 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -527,234 +505,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="47.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="47.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>4154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>33478</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2">
+        <v>3800</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2"/>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>4155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>28024</v>
+      </c>
+      <c r="F3">
+        <v>2024</v>
+      </c>
+      <c r="G3">
+        <v>5120</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>123456789</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>4156</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>32967</v>
+      </c>
+      <c r="F4">
+        <v>2024</v>
+      </c>
+      <c r="G4">
+        <v>2800</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4"/>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>4157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>28754</v>
+      </c>
+      <c r="F5">
+        <v>2024</v>
+      </c>
+      <c r="G5">
+        <v>9000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5"/>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>4158</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>3334</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H2">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
-        <v>45662</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>3335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H3">
-        <v>99</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1">
-        <v>45663</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>3336</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H4">
-        <v>123</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1">
-        <v>45664</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>3337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>31689</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1234</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1">
-        <v>45665</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>4154</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -762,28 +748,29 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>28754</v>
+      </c>
+      <c r="F6">
+        <v>2024</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1">
-        <v>33478</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H6">
-        <v>3800</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6"/>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>4159</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>4155</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -791,203 +778,81 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>28055</v>
+      </c>
+      <c r="F7">
+        <v>2024</v>
+      </c>
+      <c r="G7">
+        <v>37600</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1">
-        <v>28024</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="J7"/>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>4160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>33478</v>
+      </c>
+      <c r="F8">
         <v>2024</v>
       </c>
-      <c r="H7">
-        <v>5120</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G8">
+        <v>13400</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8"/>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>4161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>4156</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E9">
+        <v>33478</v>
+      </c>
+      <c r="F9">
+        <v>2024</v>
+      </c>
+      <c r="G9">
+        <v>4600</v>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32967</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H8">
-        <v>2800</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>4157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1">
-        <v>28754</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H9">
-        <v>9000</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9">
+      <c r="J9"/>
+      <c r="T9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>4158</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1">
-        <v>28754</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>4159</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1">
-        <v>28055</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H11">
-        <v>37600</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
-        <v>4160</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1">
-        <v>33478</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H12">
-        <v>13400</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>4161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1">
-        <v>33478</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H13">
-        <v>4600</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -202,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,7 +509,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,8 +521,8 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
     <col min="11" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
@@ -533,65 +534,65 @@
     <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="47.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="47.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -608,8 +609,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>33478</v>
+      <c r="E2" s="1">
+        <v>31533</v>
       </c>
       <c r="F2">
         <v>2024</v>
@@ -638,8 +639,8 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>28024</v>
+      <c r="E3" s="1">
+        <v>31533</v>
       </c>
       <c r="F3">
         <v>2024</v>
@@ -664,6 +665,12 @@
       </c>
       <c r="N3" t="s">
         <v>32</v>
+      </c>
+      <c r="O3" s="1">
+        <v>27686</v>
+      </c>
+      <c r="Q3">
+        <v>123654879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,8 +686,8 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>32967</v>
+      <c r="E4" s="1">
+        <v>31533</v>
       </c>
       <c r="F4">
         <v>2024</v>
@@ -703,6 +710,9 @@
       </c>
       <c r="N4" t="s">
         <v>20</v>
+      </c>
+      <c r="O4" s="1">
+        <v>21917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -718,8 +728,8 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>28754</v>
+      <c r="E5" s="1">
+        <v>31533</v>
       </c>
       <c r="F5">
         <v>2024</v>
@@ -748,8 +758,8 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
-        <v>28754</v>
+      <c r="E6" s="1">
+        <v>31533</v>
       </c>
       <c r="F6">
         <v>2024</v>
@@ -778,8 +788,8 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7">
-        <v>28055</v>
+      <c r="E7" s="1">
+        <v>31533</v>
       </c>
       <c r="F7">
         <v>2024</v>
@@ -808,8 +818,8 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
-        <v>33478</v>
+      <c r="E8" s="1">
+        <v>31533</v>
       </c>
       <c r="F8">
         <v>2024</v>
@@ -838,8 +848,8 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9">
-        <v>33478</v>
+      <c r="E9" s="1">
+        <v>31533</v>
       </c>
       <c r="F9">
         <v>2024</v>

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Фамилия</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Дата рождения2</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01.01.0123</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -210,6 +216,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,7 +518,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,7 +536,7 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
@@ -580,7 +589,7 @@
       <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -657,6 +666,9 @@
       <c r="J3">
         <v>123456789</v>
       </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
@@ -669,8 +681,17 @@
       <c r="O3" s="1">
         <v>27686</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="Q3">
         <v>123654879</v>
+      </c>
+      <c r="R3">
+        <v>5555555</v>
+      </c>
+      <c r="S3" s="1">
+        <v>45667</v>
       </c>
     </row>
     <row r="4" spans="1:20">

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13110"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,6 +734,9 @@
       </c>
       <c r="O4" s="1">
         <v>21917</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20">

--- a/patients.xlsx
+++ b/patients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="169">
   <si>
     <t>Фамилия</t>
   </si>
@@ -153,10 +153,376 @@
     <t>Дата рождения2</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>01.01.0123</t>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гусев </t>
+  </si>
+  <si>
+    <t>Меняева</t>
+  </si>
+  <si>
+    <t>Валентина</t>
+  </si>
+  <si>
+    <t>Вадимовна</t>
+  </si>
+  <si>
+    <t>5620589369</t>
+  </si>
+  <si>
+    <t>Кременицкая</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>580317995800</t>
+  </si>
+  <si>
+    <t>Куприянов</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Геннадьевич</t>
+  </si>
+  <si>
+    <t>580308903641</t>
+  </si>
+  <si>
+    <t>Акифьев</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>583513343123</t>
+  </si>
+  <si>
+    <t>Акифьева</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Ильинична</t>
+  </si>
+  <si>
+    <t>II-ИЗ 667540</t>
+  </si>
+  <si>
+    <t>Акифьев1</t>
+  </si>
+  <si>
+    <t>Пономарева</t>
+  </si>
+  <si>
+    <t>Инна</t>
+  </si>
+  <si>
+    <t>Константиновна</t>
+  </si>
+  <si>
+    <t>Бабушкин</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>583100543628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бабушкина </t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николаевна </t>
+  </si>
+  <si>
+    <t>Бабушкин1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николаевич </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бабушкин </t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валерьевич </t>
+  </si>
+  <si>
+    <t>II-ИЗ 672700</t>
+  </si>
+  <si>
+    <t>Ромашова</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>581001037296</t>
+  </si>
+  <si>
+    <t>6309392179</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спицын </t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
+    <t>583509845018</t>
+  </si>
+  <si>
+    <t>Евдокимова</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>5604 383331</t>
+  </si>
+  <si>
+    <t>Кожевникова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрьевна </t>
+  </si>
+  <si>
+    <t>583516931677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кожевникова1 </t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеевна </t>
+  </si>
+  <si>
+    <t>II-ИЗ 531859</t>
+  </si>
+  <si>
+    <t>Брешев</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрович </t>
+  </si>
+  <si>
+    <t>582900006620</t>
+  </si>
+  <si>
+    <t>Вирясова</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васильевна </t>
+  </si>
+  <si>
+    <t>583512982624</t>
+  </si>
+  <si>
+    <t>Вирясова1</t>
+  </si>
+  <si>
+    <t>Жданов</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александрович </t>
+  </si>
+  <si>
+    <t>I-ИЗ 828639</t>
+  </si>
+  <si>
+    <t>Сызранова</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>581002257417</t>
+  </si>
+  <si>
+    <t>Зуева</t>
+  </si>
+  <si>
+    <t>583511540207</t>
+  </si>
+  <si>
+    <t>Зуева1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александровна </t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеевич </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Рудазова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анатольевна </t>
+  </si>
+  <si>
+    <t>583409997881</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрьевич </t>
+  </si>
+  <si>
+    <t>Рудазова1</t>
+  </si>
+  <si>
+    <t>Рудазов</t>
+  </si>
+  <si>
+    <t>Мажина</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>581400377907</t>
+  </si>
+  <si>
+    <t>Гафаров</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Геннадьевич </t>
+  </si>
+  <si>
+    <t>583505458258</t>
+  </si>
+  <si>
+    <t>Гафарова</t>
+  </si>
+  <si>
+    <t>Альфия</t>
+  </si>
+  <si>
+    <t>Рушановна</t>
+  </si>
+  <si>
+    <t>5617 387327</t>
+  </si>
+  <si>
+    <t>Гафаров1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гафаров </t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романович </t>
+  </si>
+  <si>
+    <t>II-ИЗ 534700</t>
+  </si>
+  <si>
+    <t>Сумарукова</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>5611 052861</t>
+  </si>
+  <si>
+    <t>Кособрюхова</t>
+  </si>
+  <si>
+    <t>583400162447</t>
+  </si>
+  <si>
+    <t>Барашкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анатольевич </t>
+  </si>
+  <si>
+    <t>Агафонова</t>
+  </si>
+  <si>
+    <t>583202293649</t>
+  </si>
+  <si>
+    <t>Шварева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгеньевна </t>
+  </si>
+  <si>
+    <t>5619 550788</t>
+  </si>
+  <si>
+    <t>Потапова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ольга </t>
+  </si>
+  <si>
+    <t>583511125289</t>
+  </si>
+  <si>
+    <t>Губина</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Петровна</t>
+  </si>
+  <si>
+    <t>5603 244471</t>
   </si>
 </sst>
 </file>
@@ -208,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,9 +582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +899,7 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
@@ -589,7 +952,7 @@
       <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -631,6 +994,8 @@
         <v>17</v>
       </c>
       <c r="J2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="T2">
         <v>1</v>
       </c>
@@ -657,41 +1022,15 @@
       <c r="G3">
         <v>5120</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3">
-        <v>123456789</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1">
-        <v>27686</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3">
-        <v>123654879</v>
-      </c>
-      <c r="R3">
-        <v>5555555</v>
-      </c>
-      <c r="S3" s="1">
-        <v>45667</v>
+      <c r="J3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -716,25 +1055,13 @@
       <c r="G4">
         <v>2800</v>
       </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
       <c r="J4"/>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="1">
-        <v>21917</v>
-      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="T4">
         <v>1</v>
       </c>
@@ -765,6 +1092,8 @@
         <v>29</v>
       </c>
       <c r="J5"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
       <c r="T5">
         <v>1</v>
       </c>
@@ -795,6 +1124,8 @@
         <v>29</v>
       </c>
       <c r="J6"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="T6">
         <v>1</v>
       </c>
@@ -825,6 +1156,8 @@
         <v>33</v>
       </c>
       <c r="J7"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
       <c r="T7">
         <v>1</v>
       </c>
@@ -855,6 +1188,8 @@
         <v>35</v>
       </c>
       <c r="J8"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="T8">
         <v>1</v>
       </c>
@@ -885,8 +1220,1150 @@
         <v>35</v>
       </c>
       <c r="J9"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="T9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>4171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23670</v>
+      </c>
+      <c r="F10">
+        <v>2024</v>
+      </c>
+      <c r="G10">
+        <v>1570</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1">
+        <v>40114</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>4172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>34805</v>
+      </c>
+      <c r="F11">
+        <v>2024</v>
+      </c>
+      <c r="G11">
+        <v>5400</v>
+      </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44103</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>4173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1">
+        <v>35879</v>
+      </c>
+      <c r="F12">
+        <v>2024</v>
+      </c>
+      <c r="G12">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>4174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26242</v>
+      </c>
+      <c r="F13">
+        <v>2024</v>
+      </c>
+      <c r="G13">
+        <v>5900</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>4175</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30064</v>
+      </c>
+      <c r="F14">
+        <v>2024</v>
+      </c>
+      <c r="G14">
+        <v>900</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45259</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>4176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30064</v>
+      </c>
+      <c r="F15">
+        <v>2024</v>
+      </c>
+      <c r="G15">
+        <v>4400</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="1">
+        <v>31062</v>
+      </c>
+      <c r="P15" s="2">
+        <v>21</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5604445843</v>
+      </c>
+      <c r="S15" s="1">
+        <v>38381</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>4177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>31216</v>
+      </c>
+      <c r="F16">
+        <v>2024</v>
+      </c>
+      <c r="G16">
+        <v>3900</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="1">
+        <v>31534</v>
+      </c>
+      <c r="P16" s="2">
+        <v>21</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5611041500</v>
+      </c>
+      <c r="S16" s="1">
+        <v>41925</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>4178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1">
+        <v>31216</v>
+      </c>
+      <c r="F17">
+        <v>2024</v>
+      </c>
+      <c r="G17">
+        <v>8900</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="1">
+        <v>41836</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>4179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1">
+        <v>32522</v>
+      </c>
+      <c r="F18">
+        <v>2024</v>
+      </c>
+      <c r="G18">
+        <v>38500</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>4189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1">
+        <v>32687</v>
+      </c>
+      <c r="F19">
+        <v>2024</v>
+      </c>
+      <c r="G19">
+        <v>5600</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>4190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1">
+        <v>29306</v>
+      </c>
+      <c r="F20">
+        <v>2024</v>
+      </c>
+      <c r="G20">
+        <v>3850</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="1">
+        <v>38167</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>4191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32141</v>
+      </c>
+      <c r="F21">
+        <v>2024</v>
+      </c>
+      <c r="G21">
+        <v>31100</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>4192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32141</v>
+      </c>
+      <c r="F22">
+        <v>2024</v>
+      </c>
+      <c r="G22">
+        <v>7600</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" s="1">
+        <v>42815</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="1">
+        <v>42822</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>4193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22602</v>
+      </c>
+      <c r="F23">
+        <v>2024</v>
+      </c>
+      <c r="G23">
+        <v>1400</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>4194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="1">
+        <v>28988</v>
+      </c>
+      <c r="F24">
+        <v>2024</v>
+      </c>
+      <c r="G24">
+        <v>17490</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>4195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="1">
+        <v>28988</v>
+      </c>
+      <c r="F25">
+        <v>2024</v>
+      </c>
+      <c r="G25">
+        <v>21950</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25" s="1">
+        <v>41493</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S25" s="1">
+        <v>41499</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>4196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1">
+        <v>34499</v>
+      </c>
+      <c r="F26">
+        <v>2024</v>
+      </c>
+      <c r="G26">
+        <v>4550</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>4197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>28855</v>
+      </c>
+      <c r="F27">
+        <v>2024</v>
+      </c>
+      <c r="G27">
+        <v>26896</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>4198</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="1">
+        <v>28855</v>
+      </c>
+      <c r="F28">
+        <v>2024</v>
+      </c>
+      <c r="G28">
+        <v>1400</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M28" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="1">
+        <v>39733</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R28" s="2">
+        <v>5622704751</v>
+      </c>
+      <c r="S28" s="1">
+        <v>44854</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>4199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="1">
+        <v>32305</v>
+      </c>
+      <c r="F29">
+        <v>2024</v>
+      </c>
+      <c r="G29">
+        <v>11800</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>4200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="1">
+        <v>32305</v>
+      </c>
+      <c r="F30">
+        <v>2024</v>
+      </c>
+      <c r="G30">
+        <v>5850</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="1">
+        <v>31924</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R30" s="2">
+        <v>3607818291</v>
+      </c>
+      <c r="S30" s="1">
+        <v>39428</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>4208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1">
+        <v>28643</v>
+      </c>
+      <c r="F31">
+        <v>2024</v>
+      </c>
+      <c r="G31">
+        <v>2550</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>4209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31747</v>
+      </c>
+      <c r="F32">
+        <v>2024</v>
+      </c>
+      <c r="G32">
+        <v>9850</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" s="1">
+        <v>32092</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S32" s="1">
+        <v>42815</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>4210</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1">
+        <v>31747</v>
+      </c>
+      <c r="F33">
+        <v>2024</v>
+      </c>
+      <c r="G33">
+        <v>2900</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O33" s="1">
+        <v>42909</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="S33" s="1">
+        <v>42913</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>4211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1">
+        <v>24499</v>
+      </c>
+      <c r="F34">
+        <v>2024</v>
+      </c>
+      <c r="G34">
+        <v>162930</v>
+      </c>
+      <c r="H34">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" s="1">
+        <v>40935</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>4212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>23528</v>
+      </c>
+      <c r="F35">
+        <v>2024</v>
+      </c>
+      <c r="G35">
+        <v>32700</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <v>4213</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="1">
+        <v>23502</v>
+      </c>
+      <c r="F36">
+        <v>2024</v>
+      </c>
+      <c r="G36">
+        <v>17900</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>4214</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1">
+        <v>34384</v>
+      </c>
+      <c r="F37">
+        <v>2024</v>
+      </c>
+      <c r="G37">
+        <v>1050</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>4215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="1">
+        <v>27471</v>
+      </c>
+      <c r="F38">
+        <v>2024</v>
+      </c>
+      <c r="G38">
+        <v>20350</v>
+      </c>
+      <c r="H38">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>4216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30379</v>
+      </c>
+      <c r="F39">
+        <v>2024</v>
+      </c>
+      <c r="G39">
+        <v>7050</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M39" t="s">
+        <v>166</v>
+      </c>
+      <c r="N39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="1">
+        <v>20663</v>
+      </c>
+      <c r="P39">
+        <v>21</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S39" s="1">
+        <v>37951</v>
       </c>
     </row>
   </sheetData>
